--- a/DinartApp/Ressources/Inventaire.xlsx
+++ b/DinartApp/Ressources/Inventaire.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Desktop\Dinart GIT\dinart\DinartApp\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Desktop\Dinart GIT\dinart\DinartApp\Ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E47FE17-01D1-4A83-A41E-6D1729F34953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9319C0DC-EC53-4909-9E90-462FFDD96A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{49EFB065-4912-46CB-8CAA-FFAFDE8CE14C}"/>
   </bookViews>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773432A1-4E98-475A-A61E-49E48A59C181}">
   <dimension ref="A1:J444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
